--- a/biology/Médecine/John_Boyd_Orr/John_Boyd_Orr.xlsx
+++ b/biology/Médecine/John_Boyd_Orr/John_Boyd_Orr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John Boyd-Orr, 1er baron Boyd-Orr, né le 23 septembre 1880 à Kilmaurs (Ayrshire) et mort le 25 juin 1971 à Glasgow), est un médecin, physiologiste et nutritionniste britannique.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1915, il épouse Elizabeth Pearson Callum[1] (1881-1980)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1915, il épouse Elizabeth Pearson Callum (1881-1980).
 Médecin, John Boyd Orr est directeur général de l'Organisation des Nations unies pour l'alimentation et l'agriculture (FAO) de 1945 à 1948 et président du Conseil national pour la paix et de l'Union mondiale des organisations pour la paix.
-Il reçoit le prix Nobel de la paix en 1949 et, depuis, il est considéré comme un précurseur par les partisans de la citoyenneté mondiale[3].
+Il reçoit le prix Nobel de la paix en 1949 et, depuis, il est considéré comme un précurseur par les partisans de la citoyenneté mondiale.
 </t>
         </is>
       </c>
